--- a/Documentos/Cronograma das Sprints/MobOil_CRS_SprintBacklog.xlsx
+++ b/Documentos/Cronograma das Sprints/MobOil_CRS_SprintBacklog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibyte\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,14 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -517,6 +504,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,6 +559,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9915525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -837,7 +880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -847,15 +890,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="26" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
@@ -864,18 +907,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -896,16 +939,16 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -914,7 +957,7 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -964,24 +1007,24 @@
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="38">
         <v>1</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="43" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -990,26 +1033,26 @@
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="39">
         <v>2</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="39">
         <v>1</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="41" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="14"/>
@@ -1027,51 +1070,51 @@
       <c r="W5" s="11"/>
       <c r="X5" s="14"/>
     </row>
-    <row r="6" spans="1:28" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:28" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="40">
         <v>2</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="40">
         <v>16</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="40">
         <v>40</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1080,24 +1123,24 @@
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="34">
         <v>2</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="41" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="11"/>
@@ -1120,24 +1163,24 @@
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="34">
         <v>3</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="50" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="41" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="14"/>
@@ -1162,28 +1205,28 @@
       <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="50">
         <v>3</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="50">
         <v>3</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="34">
         <v>20</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="41" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1194,28 +1237,28 @@
       <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="33">
         <v>3</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="33">
         <v>3</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="33">
         <v>20</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="41" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1226,20 +1269,20 @@
       <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -1248,20 +1291,20 @@
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
@@ -1270,63 +1313,63 @@
       <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="41"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -1334,20 +1377,20 @@
       <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="12"/>
